--- a/new_list_alarm.xlsx
+++ b/new_list_alarm.xlsx
@@ -665,10 +665,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="B2" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -840,10 +840,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>400000</v>
+        <v>400001</v>
       </c>
       <c r="B3" t="n">
-        <v>400000</v>
+        <v>400001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>400001</v>
+        <v>400002</v>
       </c>
       <c r="B4" t="n">
-        <v>400001</v>
+        <v>400002</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>400002</v>
+        <v>400003</v>
       </c>
       <c r="B5" t="n">
-        <v>400002</v>
+        <v>400003</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>400003</v>
+        <v>400004</v>
       </c>
       <c r="B6" t="n">
-        <v>400003</v>
+        <v>400004</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>400004</v>
+        <v>400005</v>
       </c>
       <c r="B7" t="n">
-        <v>400004</v>
+        <v>400005</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>400005</v>
+        <v>400006</v>
       </c>
       <c r="B8" t="n">
-        <v>400005</v>
+        <v>400006</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>400006</v>
+        <v>400007</v>
       </c>
       <c r="B9" t="n">
-        <v>400006</v>
+        <v>400007</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>400007</v>
+        <v>400008</v>
       </c>
       <c r="B10" t="n">
-        <v>400007</v>
+        <v>400008</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>400008</v>
+        <v>400009</v>
       </c>
       <c r="B11" t="n">
-        <v>400008</v>
+        <v>400009</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>400009</v>
+        <v>400010</v>
       </c>
       <c r="B12" t="n">
-        <v>400009</v>
+        <v>400010</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>400010</v>
+        <v>400011</v>
       </c>
       <c r="B13" t="n">
-        <v>400010</v>
+        <v>400011</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>400011</v>
+        <v>400012</v>
       </c>
       <c r="B14" t="n">
-        <v>400011</v>
+        <v>400012</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>400012</v>
+        <v>400013</v>
       </c>
       <c r="B15" t="n">
-        <v>400012</v>
+        <v>400013</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>400013</v>
+        <v>400014</v>
       </c>
       <c r="B16" t="n">
-        <v>400013</v>
+        <v>400014</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>400014</v>
+        <v>400015</v>
       </c>
       <c r="B17" t="n">
-        <v>400014</v>
+        <v>400015</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>400015</v>
+        <v>400016</v>
       </c>
       <c r="B18" t="n">
-        <v>400015</v>
+        <v>400016</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>400016</v>
+        <v>400017</v>
       </c>
       <c r="B19" t="n">
-        <v>400016</v>
+        <v>400017</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3815,10 +3815,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>400017</v>
+        <v>400018</v>
       </c>
       <c r="B20" t="n">
-        <v>400017</v>
+        <v>400018</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>400018</v>
+        <v>400019</v>
       </c>
       <c r="B21" t="n">
-        <v>400018</v>
+        <v>400019</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>400019</v>
+        <v>400020</v>
       </c>
       <c r="B22" t="n">
-        <v>400019</v>
+        <v>400020</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>400020</v>
+        <v>400021</v>
       </c>
       <c r="B23" t="n">
-        <v>400020</v>
+        <v>400021</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>400021</v>
+        <v>400022</v>
       </c>
       <c r="B24" t="n">
-        <v>400021</v>
+        <v>400022</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>400022</v>
+        <v>400023</v>
       </c>
       <c r="B25" t="n">
-        <v>400022</v>
+        <v>400023</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>400023</v>
+        <v>400024</v>
       </c>
       <c r="B26" t="n">
-        <v>400023</v>
+        <v>400024</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>400024</v>
+        <v>400025</v>
       </c>
       <c r="B27" t="n">
-        <v>400024</v>
+        <v>400025</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>400025</v>
+        <v>400026</v>
       </c>
       <c r="B28" t="n">
-        <v>400025</v>
+        <v>400026</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>400026</v>
+        <v>400027</v>
       </c>
       <c r="B29" t="n">
-        <v>400026</v>
+        <v>400027</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>400027</v>
+        <v>400028</v>
       </c>
       <c r="B30" t="n">
-        <v>400027</v>
+        <v>400028</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>400028</v>
+        <v>400029</v>
       </c>
       <c r="B31" t="n">
-        <v>400028</v>
+        <v>400029</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5915,10 +5915,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>400029</v>
+        <v>400030</v>
       </c>
       <c r="B32" t="n">
-        <v>400029</v>
+        <v>400030</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>400030</v>
+        <v>400031</v>
       </c>
       <c r="B33" t="n">
-        <v>400030</v>
+        <v>400031</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>400031</v>
+        <v>400032</v>
       </c>
       <c r="B34" t="n">
-        <v>400031</v>
+        <v>400032</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>400032</v>
+        <v>400033</v>
       </c>
       <c r="B35" t="n">
-        <v>400032</v>
+        <v>400033</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>400033</v>
+        <v>400034</v>
       </c>
       <c r="B36" t="n">
-        <v>400033</v>
+        <v>400034</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>400034</v>
+        <v>400035</v>
       </c>
       <c r="B37" t="n">
-        <v>400034</v>
+        <v>400035</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>400035</v>
+        <v>400036</v>
       </c>
       <c r="B38" t="n">
-        <v>400035</v>
+        <v>400036</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>400036</v>
+        <v>400037</v>
       </c>
       <c r="B39" t="n">
-        <v>400036</v>
+        <v>400037</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>400037</v>
+        <v>400038</v>
       </c>
       <c r="B40" t="n">
-        <v>400037</v>
+        <v>400038</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -7490,10 +7490,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>400038</v>
+        <v>400039</v>
       </c>
       <c r="B41" t="n">
-        <v>400038</v>
+        <v>400039</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>400039</v>
+        <v>400040</v>
       </c>
       <c r="B42" t="n">
-        <v>400039</v>
+        <v>400040</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>400040</v>
+        <v>400041</v>
       </c>
       <c r="B43" t="n">
-        <v>400040</v>
+        <v>400041</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -8015,10 +8015,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>400041</v>
+        <v>400042</v>
       </c>
       <c r="B44" t="n">
-        <v>400041</v>
+        <v>400042</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -8190,10 +8190,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>400042</v>
+        <v>400043</v>
       </c>
       <c r="B45" t="n">
-        <v>400042</v>
+        <v>400043</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -8365,10 +8365,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>400043</v>
+        <v>400044</v>
       </c>
       <c r="B46" t="n">
-        <v>400043</v>
+        <v>400044</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>400044</v>
+        <v>400045</v>
       </c>
       <c r="B47" t="n">
-        <v>400044</v>
+        <v>400045</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -8715,10 +8715,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>400045</v>
+        <v>400046</v>
       </c>
       <c r="B48" t="n">
-        <v>400045</v>
+        <v>400046</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -8890,10 +8890,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>400046</v>
+        <v>400047</v>
       </c>
       <c r="B49" t="n">
-        <v>400046</v>
+        <v>400047</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>400047</v>
+        <v>400048</v>
       </c>
       <c r="B50" t="n">
-        <v>400047</v>
+        <v>400048</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -9240,10 +9240,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>400048</v>
+        <v>400049</v>
       </c>
       <c r="B51" t="n">
-        <v>400048</v>
+        <v>400049</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -9415,10 +9415,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>400049</v>
+        <v>400050</v>
       </c>
       <c r="B52" t="n">
-        <v>400049</v>
+        <v>400050</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>400050</v>
+        <v>400051</v>
       </c>
       <c r="B53" t="n">
-        <v>400050</v>
+        <v>400051</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>400051</v>
+        <v>400052</v>
       </c>
       <c r="B54" t="n">
-        <v>400051</v>
+        <v>400052</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>400052</v>
+        <v>400053</v>
       </c>
       <c r="B55" t="n">
-        <v>400052</v>
+        <v>400053</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -10115,10 +10115,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>400053</v>
+        <v>400054</v>
       </c>
       <c r="B56" t="n">
-        <v>400053</v>
+        <v>400054</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -10290,10 +10290,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>400054</v>
+        <v>400055</v>
       </c>
       <c r="B57" t="n">
-        <v>400054</v>
+        <v>400055</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>400055</v>
+        <v>400056</v>
       </c>
       <c r="B58" t="n">
-        <v>400055</v>
+        <v>400056</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>400056</v>
+        <v>400057</v>
       </c>
       <c r="B59" t="n">
-        <v>400056</v>
+        <v>400057</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -10815,10 +10815,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>400057</v>
+        <v>400058</v>
       </c>
       <c r="B60" t="n">
-        <v>400057</v>
+        <v>400058</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>400058</v>
+        <v>400059</v>
       </c>
       <c r="B61" t="n">
-        <v>400058</v>
+        <v>400059</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -11165,10 +11165,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>400059</v>
+        <v>400060</v>
       </c>
       <c r="B62" t="n">
-        <v>400059</v>
+        <v>400060</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>400060</v>
+        <v>400061</v>
       </c>
       <c r="B63" t="n">
-        <v>400060</v>
+        <v>400061</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -11515,10 +11515,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>400061</v>
+        <v>400062</v>
       </c>
       <c r="B64" t="n">
-        <v>400061</v>
+        <v>400062</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -11690,10 +11690,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>400062</v>
+        <v>400063</v>
       </c>
       <c r="B65" t="n">
-        <v>400062</v>
+        <v>400063</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -11865,10 +11865,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>400063</v>
+        <v>400064</v>
       </c>
       <c r="B66" t="n">
-        <v>400063</v>
+        <v>400064</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -12040,10 +12040,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>400064</v>
+        <v>400065</v>
       </c>
       <c r="B67" t="n">
-        <v>400064</v>
+        <v>400065</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -12215,10 +12215,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>400065</v>
+        <v>400066</v>
       </c>
       <c r="B68" t="n">
-        <v>400065</v>
+        <v>400066</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -12390,10 +12390,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>400066</v>
+        <v>400067</v>
       </c>
       <c r="B69" t="n">
-        <v>400066</v>
+        <v>400067</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -12565,10 +12565,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>400067</v>
+        <v>400068</v>
       </c>
       <c r="B70" t="n">
-        <v>400067</v>
+        <v>400068</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -12740,10 +12740,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>400068</v>
+        <v>400069</v>
       </c>
       <c r="B71" t="n">
-        <v>400068</v>
+        <v>400069</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -12915,10 +12915,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>400069</v>
+        <v>400070</v>
       </c>
       <c r="B72" t="n">
-        <v>400069</v>
+        <v>400070</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -13090,10 +13090,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>400070</v>
+        <v>400071</v>
       </c>
       <c r="B73" t="n">
-        <v>400070</v>
+        <v>400071</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>400071</v>
+        <v>400072</v>
       </c>
       <c r="B74" t="n">
-        <v>400071</v>
+        <v>400072</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>400072</v>
+        <v>400073</v>
       </c>
       <c r="B75" t="n">
-        <v>400072</v>
+        <v>400073</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -13615,10 +13615,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>400073</v>
+        <v>400074</v>
       </c>
       <c r="B76" t="n">
-        <v>400073</v>
+        <v>400074</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>400074</v>
+        <v>400075</v>
       </c>
       <c r="B77" t="n">
-        <v>400074</v>
+        <v>400075</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -13965,10 +13965,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>400075</v>
+        <v>400076</v>
       </c>
       <c r="B78" t="n">
-        <v>400075</v>
+        <v>400076</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -14140,10 +14140,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>400076</v>
+        <v>400077</v>
       </c>
       <c r="B79" t="n">
-        <v>400076</v>
+        <v>400077</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -14315,10 +14315,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>400077</v>
+        <v>400078</v>
       </c>
       <c r="B80" t="n">
-        <v>400077</v>
+        <v>400078</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -14490,10 +14490,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>400078</v>
+        <v>400079</v>
       </c>
       <c r="B81" t="n">
-        <v>400078</v>
+        <v>400079</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -14665,10 +14665,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>400079</v>
+        <v>400080</v>
       </c>
       <c r="B82" t="n">
-        <v>400079</v>
+        <v>400080</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>400080</v>
+        <v>400081</v>
       </c>
       <c r="B83" t="n">
-        <v>400080</v>
+        <v>400081</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -15015,10 +15015,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>400081</v>
+        <v>400082</v>
       </c>
       <c r="B84" t="n">
-        <v>400081</v>
+        <v>400082</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>400082</v>
+        <v>400083</v>
       </c>
       <c r="B85" t="n">
-        <v>400082</v>
+        <v>400083</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -15365,10 +15365,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>400083</v>
+        <v>400084</v>
       </c>
       <c r="B86" t="n">
-        <v>400083</v>
+        <v>400084</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -15540,10 +15540,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>400084</v>
+        <v>400085</v>
       </c>
       <c r="B87" t="n">
-        <v>400084</v>
+        <v>400085</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -15715,10 +15715,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>400085</v>
+        <v>400086</v>
       </c>
       <c r="B88" t="n">
-        <v>400085</v>
+        <v>400086</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -15890,10 +15890,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>400086</v>
+        <v>400087</v>
       </c>
       <c r="B89" t="n">
-        <v>400086</v>
+        <v>400087</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -16065,10 +16065,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>400087</v>
+        <v>400088</v>
       </c>
       <c r="B90" t="n">
-        <v>400087</v>
+        <v>400088</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -16240,10 +16240,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>400088</v>
+        <v>400089</v>
       </c>
       <c r="B91" t="n">
-        <v>400088</v>
+        <v>400089</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -16415,10 +16415,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>400089</v>
+        <v>400090</v>
       </c>
       <c r="B92" t="n">
-        <v>400089</v>
+        <v>400090</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -16590,10 +16590,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>400090</v>
+        <v>400091</v>
       </c>
       <c r="B93" t="n">
-        <v>400090</v>
+        <v>400091</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -16765,10 +16765,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>400091</v>
+        <v>400092</v>
       </c>
       <c r="B94" t="n">
-        <v>400091</v>
+        <v>400092</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -16940,10 +16940,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>400092</v>
+        <v>400093</v>
       </c>
       <c r="B95" t="n">
-        <v>400092</v>
+        <v>400093</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -17115,10 +17115,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>400093</v>
+        <v>400094</v>
       </c>
       <c r="B96" t="n">
-        <v>400093</v>
+        <v>400094</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>400094</v>
+        <v>400095</v>
       </c>
       <c r="B97" t="n">
-        <v>400094</v>
+        <v>400095</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -17465,10 +17465,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>400095</v>
+        <v>400096</v>
       </c>
       <c r="B98" t="n">
-        <v>400095</v>
+        <v>400096</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -17640,10 +17640,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>400096</v>
+        <v>400097</v>
       </c>
       <c r="B99" t="n">
-        <v>400096</v>
+        <v>400097</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -17815,10 +17815,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>400097</v>
+        <v>400098</v>
       </c>
       <c r="B100" t="n">
-        <v>400097</v>
+        <v>400098</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -17990,10 +17990,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>400098</v>
+        <v>400099</v>
       </c>
       <c r="B101" t="n">
-        <v>400098</v>
+        <v>400099</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -18165,10 +18165,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>400099</v>
+        <v>400100</v>
       </c>
       <c r="B102" t="n">
-        <v>400099</v>
+        <v>400100</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -18340,10 +18340,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>400100</v>
+        <v>400101</v>
       </c>
       <c r="B103" t="n">
-        <v>400100</v>
+        <v>400101</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -18515,10 +18515,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>400101</v>
+        <v>400102</v>
       </c>
       <c r="B104" t="n">
-        <v>400101</v>
+        <v>400102</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -18690,10 +18690,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>400102</v>
+        <v>400103</v>
       </c>
       <c r="B105" t="n">
-        <v>400102</v>
+        <v>400103</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -18865,10 +18865,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>400103</v>
+        <v>400104</v>
       </c>
       <c r="B106" t="n">
-        <v>400103</v>
+        <v>400104</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -19040,10 +19040,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>400104</v>
+        <v>400105</v>
       </c>
       <c r="B107" t="n">
-        <v>400104</v>
+        <v>400105</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -19215,10 +19215,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>400105</v>
+        <v>400106</v>
       </c>
       <c r="B108" t="n">
-        <v>400105</v>
+        <v>400106</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>400106</v>
+        <v>400107</v>
       </c>
       <c r="B109" t="n">
-        <v>400106</v>
+        <v>400107</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -19565,10 +19565,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>400107</v>
+        <v>400108</v>
       </c>
       <c r="B110" t="n">
-        <v>400107</v>
+        <v>400108</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -19740,10 +19740,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>400108</v>
+        <v>400109</v>
       </c>
       <c r="B111" t="n">
-        <v>400108</v>
+        <v>400109</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -19915,10 +19915,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>400109</v>
+        <v>400110</v>
       </c>
       <c r="B112" t="n">
-        <v>400109</v>
+        <v>400110</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -20090,10 +20090,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>400110</v>
+        <v>400111</v>
       </c>
       <c r="B113" t="n">
-        <v>400110</v>
+        <v>400111</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -20265,10 +20265,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>400111</v>
+        <v>400112</v>
       </c>
       <c r="B114" t="n">
-        <v>400111</v>
+        <v>400112</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -20440,10 +20440,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>400112</v>
+        <v>400113</v>
       </c>
       <c r="B115" t="n">
-        <v>400112</v>
+        <v>400113</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -20615,10 +20615,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>400113</v>
+        <v>400114</v>
       </c>
       <c r="B116" t="n">
-        <v>400113</v>
+        <v>400114</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -20790,10 +20790,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>400114</v>
+        <v>400115</v>
       </c>
       <c r="B117" t="n">
-        <v>400114</v>
+        <v>400115</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -20965,10 +20965,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>400115</v>
+        <v>400116</v>
       </c>
       <c r="B118" t="n">
-        <v>400115</v>
+        <v>400116</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -21140,10 +21140,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>400116</v>
+        <v>400117</v>
       </c>
       <c r="B119" t="n">
-        <v>400116</v>
+        <v>400117</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -21315,10 +21315,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>400117</v>
+        <v>400118</v>
       </c>
       <c r="B120" t="n">
-        <v>400117</v>
+        <v>400118</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -21490,10 +21490,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>400118</v>
+        <v>400119</v>
       </c>
       <c r="B121" t="n">
-        <v>400118</v>
+        <v>400119</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -21665,10 +21665,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>400119</v>
+        <v>400120</v>
       </c>
       <c r="B122" t="n">
-        <v>400119</v>
+        <v>400120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -21840,10 +21840,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>400120</v>
+        <v>400121</v>
       </c>
       <c r="B123" t="n">
-        <v>400120</v>
+        <v>400121</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -22015,10 +22015,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>400121</v>
+        <v>400122</v>
       </c>
       <c r="B124" t="n">
-        <v>400121</v>
+        <v>400122</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -22190,10 +22190,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>400122</v>
+        <v>400123</v>
       </c>
       <c r="B125" t="n">
-        <v>400122</v>
+        <v>400123</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -22365,10 +22365,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>400123</v>
+        <v>400124</v>
       </c>
       <c r="B126" t="n">
-        <v>400123</v>
+        <v>400124</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -22540,10 +22540,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>400124</v>
+        <v>400125</v>
       </c>
       <c r="B127" t="n">
-        <v>400124</v>
+        <v>400125</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -22715,10 +22715,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>400125</v>
+        <v>400126</v>
       </c>
       <c r="B128" t="n">
-        <v>400125</v>
+        <v>400126</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -22890,10 +22890,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>400126</v>
+        <v>400127</v>
       </c>
       <c r="B129" t="n">
-        <v>400126</v>
+        <v>400127</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -23065,10 +23065,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>400127</v>
+        <v>400128</v>
       </c>
       <c r="B130" t="n">
-        <v>400127</v>
+        <v>400128</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -23242,10 +23242,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>400128</v>
+        <v>400129</v>
       </c>
       <c r="B131" t="n">
-        <v>400128</v>
+        <v>400129</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -23419,10 +23419,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>400129</v>
+        <v>400130</v>
       </c>
       <c r="B132" t="n">
-        <v>400129</v>
+        <v>400130</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -23596,10 +23596,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>400130</v>
+        <v>400131</v>
       </c>
       <c r="B133" t="n">
-        <v>400130</v>
+        <v>400131</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -23773,10 +23773,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>400131</v>
+        <v>400132</v>
       </c>
       <c r="B134" t="n">
-        <v>400131</v>
+        <v>400132</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>400132</v>
+        <v>400133</v>
       </c>
       <c r="B135" t="n">
-        <v>400132</v>
+        <v>400133</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -24127,10 +24127,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>400133</v>
+        <v>400134</v>
       </c>
       <c r="B136" t="n">
-        <v>400133</v>
+        <v>400134</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -24304,10 +24304,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>400134</v>
+        <v>400135</v>
       </c>
       <c r="B137" t="n">
-        <v>400134</v>
+        <v>400135</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -24481,10 +24481,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>400135</v>
+        <v>400136</v>
       </c>
       <c r="B138" t="n">
-        <v>400135</v>
+        <v>400136</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -24658,10 +24658,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>400136</v>
+        <v>400137</v>
       </c>
       <c r="B139" t="n">
-        <v>400136</v>
+        <v>400137</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -24835,10 +24835,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>400137</v>
+        <v>400138</v>
       </c>
       <c r="B140" t="n">
-        <v>400137</v>
+        <v>400138</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -25012,10 +25012,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>400138</v>
+        <v>400139</v>
       </c>
       <c r="B141" t="n">
-        <v>400138</v>
+        <v>400139</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -25189,10 +25189,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>400139</v>
+        <v>400140</v>
       </c>
       <c r="B142" t="n">
-        <v>400139</v>
+        <v>400140</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -25366,10 +25366,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>400140</v>
+        <v>400141</v>
       </c>
       <c r="B143" t="n">
-        <v>400140</v>
+        <v>400141</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -25543,10 +25543,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>400141</v>
+        <v>400142</v>
       </c>
       <c r="B144" t="n">
-        <v>400141</v>
+        <v>400142</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -25720,10 +25720,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>400142</v>
+        <v>400143</v>
       </c>
       <c r="B145" t="n">
-        <v>400142</v>
+        <v>400143</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -25896,10 +25896,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>400143</v>
+        <v>400144</v>
       </c>
       <c r="B146" t="n">
-        <v>400143</v>
+        <v>400144</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -26073,10 +26073,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>400144</v>
+        <v>400145</v>
       </c>
       <c r="B147" t="n">
-        <v>400144</v>
+        <v>400145</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -26250,10 +26250,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>400145</v>
+        <v>400146</v>
       </c>
       <c r="B148" t="n">
-        <v>400145</v>
+        <v>400146</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -26427,10 +26427,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>400146</v>
+        <v>400147</v>
       </c>
       <c r="B149" t="n">
-        <v>400146</v>
+        <v>400147</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -26604,10 +26604,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>400147</v>
+        <v>400148</v>
       </c>
       <c r="B150" t="n">
-        <v>400147</v>
+        <v>400148</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -26781,10 +26781,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>400148</v>
+        <v>400149</v>
       </c>
       <c r="B151" t="n">
-        <v>400148</v>
+        <v>400149</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -26958,10 +26958,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>400149</v>
+        <v>400150</v>
       </c>
       <c r="B152" t="n">
-        <v>400149</v>
+        <v>400150</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -27135,10 +27135,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>400150</v>
+        <v>400151</v>
       </c>
       <c r="B153" t="n">
-        <v>400150</v>
+        <v>400151</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -27312,10 +27312,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>400151</v>
+        <v>400152</v>
       </c>
       <c r="B154" t="n">
-        <v>400151</v>
+        <v>400152</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -27489,10 +27489,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>400152</v>
+        <v>400153</v>
       </c>
       <c r="B155" t="n">
-        <v>400152</v>
+        <v>400153</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -27666,10 +27666,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>400153</v>
+        <v>400154</v>
       </c>
       <c r="B156" t="n">
-        <v>400153</v>
+        <v>400154</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -27843,10 +27843,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>400154</v>
+        <v>400155</v>
       </c>
       <c r="B157" t="n">
-        <v>400154</v>
+        <v>400155</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -28020,10 +28020,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>400155</v>
+        <v>400156</v>
       </c>
       <c r="B158" t="n">
-        <v>400155</v>
+        <v>400156</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -28197,10 +28197,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>400156</v>
+        <v>400157</v>
       </c>
       <c r="B159" t="n">
-        <v>400156</v>
+        <v>400157</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -28373,10 +28373,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>400157</v>
+        <v>400158</v>
       </c>
       <c r="B160" t="n">
-        <v>400157</v>
+        <v>400158</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -28549,10 +28549,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>400158</v>
+        <v>400159</v>
       </c>
       <c r="B161" t="n">
-        <v>400158</v>
+        <v>400159</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -28725,10 +28725,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>400159</v>
+        <v>400160</v>
       </c>
       <c r="B162" t="n">
-        <v>400159</v>
+        <v>400160</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -28902,10 +28902,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>400160</v>
+        <v>400161</v>
       </c>
       <c r="B163" t="n">
-        <v>400160</v>
+        <v>400161</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -29079,10 +29079,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>400161</v>
+        <v>400162</v>
       </c>
       <c r="B164" t="n">
-        <v>400161</v>
+        <v>400162</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -29256,10 +29256,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>400162</v>
+        <v>400163</v>
       </c>
       <c r="B165" t="n">
-        <v>400162</v>
+        <v>400163</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -29432,10 +29432,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>400163</v>
+        <v>400164</v>
       </c>
       <c r="B166" t="n">
-        <v>400163</v>
+        <v>400164</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -29609,10 +29609,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>400164</v>
+        <v>400165</v>
       </c>
       <c r="B167" t="n">
-        <v>400164</v>
+        <v>400165</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -29785,10 +29785,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>400165</v>
+        <v>400166</v>
       </c>
       <c r="B168" t="n">
-        <v>400165</v>
+        <v>400166</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -29962,10 +29962,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>400166</v>
+        <v>400167</v>
       </c>
       <c r="B169" t="n">
-        <v>400166</v>
+        <v>400167</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -30139,10 +30139,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>400167</v>
+        <v>400168</v>
       </c>
       <c r="B170" t="n">
-        <v>400167</v>
+        <v>400168</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -30316,10 +30316,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>400168</v>
+        <v>400169</v>
       </c>
       <c r="B171" t="n">
-        <v>400168</v>
+        <v>400169</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -30493,10 +30493,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>400169</v>
+        <v>400170</v>
       </c>
       <c r="B172" t="n">
-        <v>400169</v>
+        <v>400170</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>400170</v>
+        <v>400171</v>
       </c>
       <c r="B173" t="n">
-        <v>400170</v>
+        <v>400171</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -30846,10 +30846,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>400171</v>
+        <v>400172</v>
       </c>
       <c r="B174" t="n">
-        <v>400171</v>
+        <v>400172</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -31022,10 +31022,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>400172</v>
+        <v>400173</v>
       </c>
       <c r="B175" t="n">
-        <v>400172</v>
+        <v>400173</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>400173</v>
+        <v>400174</v>
       </c>
       <c r="B176" t="n">
-        <v>400173</v>
+        <v>400174</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -31374,10 +31374,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>400174</v>
+        <v>400175</v>
       </c>
       <c r="B177" t="n">
-        <v>400174</v>
+        <v>400175</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -31550,10 +31550,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>400175</v>
+        <v>400176</v>
       </c>
       <c r="B178" t="n">
-        <v>400175</v>
+        <v>400176</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -31727,10 +31727,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>400176</v>
+        <v>400177</v>
       </c>
       <c r="B179" t="n">
-        <v>400176</v>
+        <v>400177</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>400177</v>
+        <v>400178</v>
       </c>
       <c r="B180" t="n">
-        <v>400177</v>
+        <v>400178</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -32081,10 +32081,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>400178</v>
+        <v>400179</v>
       </c>
       <c r="B181" t="n">
-        <v>400178</v>
+        <v>400179</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -32258,10 +32258,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>400179</v>
+        <v>400180</v>
       </c>
       <c r="B182" t="n">
-        <v>400179</v>
+        <v>400180</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -32435,10 +32435,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>400180</v>
+        <v>400181</v>
       </c>
       <c r="B183" t="n">
-        <v>400180</v>
+        <v>400181</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -32612,10 +32612,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>400181</v>
+        <v>400182</v>
       </c>
       <c r="B184" t="n">
-        <v>400181</v>
+        <v>400182</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -32789,10 +32789,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>400182</v>
+        <v>400183</v>
       </c>
       <c r="B185" t="n">
-        <v>400182</v>
+        <v>400183</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -32965,10 +32965,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>400183</v>
+        <v>400184</v>
       </c>
       <c r="B186" t="n">
-        <v>400183</v>
+        <v>400184</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -33141,10 +33141,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>400184</v>
+        <v>400185</v>
       </c>
       <c r="B187" t="n">
-        <v>400184</v>
+        <v>400185</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -33317,10 +33317,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>400185</v>
+        <v>400186</v>
       </c>
       <c r="B188" t="n">
-        <v>400185</v>
+        <v>400186</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -33494,10 +33494,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>400186</v>
+        <v>400187</v>
       </c>
       <c r="B189" t="n">
-        <v>400186</v>
+        <v>400187</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -33671,10 +33671,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>400187</v>
+        <v>400188</v>
       </c>
       <c r="B190" t="n">
-        <v>400187</v>
+        <v>400188</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -33847,10 +33847,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>400188</v>
+        <v>400189</v>
       </c>
       <c r="B191" t="n">
-        <v>400188</v>
+        <v>400189</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -34024,10 +34024,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>400189</v>
+        <v>400190</v>
       </c>
       <c r="B192" t="n">
-        <v>400189</v>
+        <v>400190</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -34200,10 +34200,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>400190</v>
+        <v>400191</v>
       </c>
       <c r="B193" t="n">
-        <v>400190</v>
+        <v>400191</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -34376,10 +34376,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>400191</v>
+        <v>400192</v>
       </c>
       <c r="B194" t="n">
-        <v>400191</v>
+        <v>400192</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -34553,10 +34553,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>400192</v>
+        <v>400193</v>
       </c>
       <c r="B195" t="n">
-        <v>400192</v>
+        <v>400193</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -34730,10 +34730,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>400193</v>
+        <v>400194</v>
       </c>
       <c r="B196" t="n">
-        <v>400193</v>
+        <v>400194</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -34907,10 +34907,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>400194</v>
+        <v>400195</v>
       </c>
       <c r="B197" t="n">
-        <v>400194</v>
+        <v>400195</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -35083,10 +35083,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>400195</v>
+        <v>400196</v>
       </c>
       <c r="B198" t="n">
-        <v>400195</v>
+        <v>400196</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -35259,10 +35259,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>400196</v>
+        <v>400197</v>
       </c>
       <c r="B199" t="n">
-        <v>400196</v>
+        <v>400197</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -35435,10 +35435,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>400197</v>
+        <v>400198</v>
       </c>
       <c r="B200" t="n">
-        <v>400197</v>
+        <v>400198</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -35611,10 +35611,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>400198</v>
+        <v>400199</v>
       </c>
       <c r="B201" t="n">
-        <v>400198</v>
+        <v>400199</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -35787,10 +35787,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>400199</v>
+        <v>400200</v>
       </c>
       <c r="B202" t="n">
-        <v>400199</v>
+        <v>400200</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -35963,10 +35963,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>400200</v>
+        <v>400201</v>
       </c>
       <c r="B203" t="n">
-        <v>400200</v>
+        <v>400201</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -36139,10 +36139,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>400201</v>
+        <v>400202</v>
       </c>
       <c r="B204" t="n">
-        <v>400201</v>
+        <v>400202</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -36315,10 +36315,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>400202</v>
+        <v>400203</v>
       </c>
       <c r="B205" t="n">
-        <v>400202</v>
+        <v>400203</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -36491,10 +36491,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>400203</v>
+        <v>400204</v>
       </c>
       <c r="B206" t="n">
-        <v>400203</v>
+        <v>400204</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -36667,10 +36667,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>400204</v>
+        <v>400205</v>
       </c>
       <c r="B207" t="n">
-        <v>400204</v>
+        <v>400205</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -36843,10 +36843,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>400205</v>
+        <v>400206</v>
       </c>
       <c r="B208" t="n">
-        <v>400205</v>
+        <v>400206</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -37019,10 +37019,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>400206</v>
+        <v>400207</v>
       </c>
       <c r="B209" t="n">
-        <v>400206</v>
+        <v>400207</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -37195,10 +37195,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>400207</v>
+        <v>500000</v>
       </c>
       <c r="B210" t="n">
-        <v>400207</v>
+        <v>500000</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -37370,10 +37370,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>500000</v>
+        <v>500001</v>
       </c>
       <c r="B211" t="n">
-        <v>500000</v>
+        <v>500001</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -37545,10 +37545,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>500001</v>
+        <v>500002</v>
       </c>
       <c r="B212" t="n">
-        <v>500001</v>
+        <v>500002</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -37720,10 +37720,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>500002</v>
+        <v>500003</v>
       </c>
       <c r="B213" t="n">
-        <v>500002</v>
+        <v>500003</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -37895,10 +37895,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>500003</v>
+        <v>500004</v>
       </c>
       <c r="B214" t="n">
-        <v>500003</v>
+        <v>500004</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -38070,10 +38070,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>500004</v>
+        <v>500005</v>
       </c>
       <c r="B215" t="n">
-        <v>500004</v>
+        <v>500005</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -38245,10 +38245,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>500005</v>
+        <v>500006</v>
       </c>
       <c r="B216" t="n">
-        <v>500005</v>
+        <v>500006</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -38420,10 +38420,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>500006</v>
+        <v>500007</v>
       </c>
       <c r="B217" t="n">
-        <v>500006</v>
+        <v>500007</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -38595,10 +38595,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>500007</v>
+        <v>500008</v>
       </c>
       <c r="B218" t="n">
-        <v>500007</v>
+        <v>500008</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -38770,10 +38770,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>500008</v>
+        <v>500009</v>
       </c>
       <c r="B219" t="n">
-        <v>500008</v>
+        <v>500009</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -38945,10 +38945,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>500009</v>
+        <v>500010</v>
       </c>
       <c r="B220" t="n">
-        <v>500009</v>
+        <v>500010</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -39120,10 +39120,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>500010</v>
+        <v>500011</v>
       </c>
       <c r="B221" t="n">
-        <v>500010</v>
+        <v>500011</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -39295,10 +39295,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>500011</v>
+        <v>500012</v>
       </c>
       <c r="B222" t="n">
-        <v>500011</v>
+        <v>500012</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -39470,10 +39470,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>500012</v>
+        <v>500013</v>
       </c>
       <c r="B223" t="n">
-        <v>500012</v>
+        <v>500013</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -39645,10 +39645,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>500013</v>
+        <v>500014</v>
       </c>
       <c r="B224" t="n">
-        <v>500013</v>
+        <v>500014</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -39820,10 +39820,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>500014</v>
+        <v>500015</v>
       </c>
       <c r="B225" t="n">
-        <v>500014</v>
+        <v>500015</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -39995,10 +39995,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>500015</v>
+        <v>500016</v>
       </c>
       <c r="B226" t="n">
-        <v>500015</v>
+        <v>500016</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -40170,10 +40170,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>500016</v>
+        <v>500017</v>
       </c>
       <c r="B227" t="n">
-        <v>500016</v>
+        <v>500017</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -40345,10 +40345,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>500017</v>
+        <v>500018</v>
       </c>
       <c r="B228" t="n">
-        <v>500017</v>
+        <v>500018</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -40520,10 +40520,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>500018</v>
+        <v>500019</v>
       </c>
       <c r="B229" t="n">
-        <v>500018</v>
+        <v>500019</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -40695,10 +40695,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>500019</v>
+        <v>500020</v>
       </c>
       <c r="B230" t="n">
-        <v>500019</v>
+        <v>500020</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -40870,10 +40870,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>500020</v>
+        <v>500021</v>
       </c>
       <c r="B231" t="n">
-        <v>500020</v>
+        <v>500021</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -41045,10 +41045,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>500021</v>
+        <v>500022</v>
       </c>
       <c r="B232" t="n">
-        <v>500021</v>
+        <v>500022</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -41220,10 +41220,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>500022</v>
+        <v>500023</v>
       </c>
       <c r="B233" t="n">
-        <v>500022</v>
+        <v>500023</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -41395,10 +41395,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>500023</v>
+        <v>500024</v>
       </c>
       <c r="B234" t="n">
-        <v>500023</v>
+        <v>500024</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -41570,10 +41570,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>500024</v>
+        <v>500025</v>
       </c>
       <c r="B235" t="n">
-        <v>500024</v>
+        <v>500025</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -41745,10 +41745,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>500025</v>
+        <v>500026</v>
       </c>
       <c r="B236" t="n">
-        <v>500025</v>
+        <v>500026</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -41920,10 +41920,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>500026</v>
+        <v>500027</v>
       </c>
       <c r="B237" t="n">
-        <v>500026</v>
+        <v>500027</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -42095,10 +42095,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>500027</v>
+        <v>500028</v>
       </c>
       <c r="B238" t="n">
-        <v>500027</v>
+        <v>500028</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -42270,10 +42270,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>500028</v>
+        <v>500029</v>
       </c>
       <c r="B239" t="n">
-        <v>500028</v>
+        <v>500029</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -42445,10 +42445,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>500029</v>
+        <v>500030</v>
       </c>
       <c r="B240" t="n">
-        <v>500029</v>
+        <v>500030</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -42620,10 +42620,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>500030</v>
+        <v>500031</v>
       </c>
       <c r="B241" t="n">
-        <v>500030</v>
+        <v>500031</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -42795,10 +42795,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>500031</v>
+        <v>500032</v>
       </c>
       <c r="B242" t="n">
-        <v>500031</v>
+        <v>500032</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -42970,10 +42970,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>500032</v>
+        <v>500033</v>
       </c>
       <c r="B243" t="n">
-        <v>500032</v>
+        <v>500033</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -43145,10 +43145,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>500033</v>
+        <v>500034</v>
       </c>
       <c r="B244" t="n">
-        <v>500033</v>
+        <v>500034</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -43320,10 +43320,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>500034</v>
+        <v>500035</v>
       </c>
       <c r="B245" t="n">
-        <v>500034</v>
+        <v>500035</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -43495,10 +43495,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>500035</v>
+        <v>500036</v>
       </c>
       <c r="B246" t="n">
-        <v>500035</v>
+        <v>500036</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -43670,10 +43670,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>500036</v>
+        <v>500037</v>
       </c>
       <c r="B247" t="n">
-        <v>500036</v>
+        <v>500037</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -43845,10 +43845,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>500037</v>
+        <v>500038</v>
       </c>
       <c r="B248" t="n">
-        <v>500037</v>
+        <v>500038</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -44020,10 +44020,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>500038</v>
+        <v>500039</v>
       </c>
       <c r="B249" t="n">
-        <v>500038</v>
+        <v>500039</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -44195,10 +44195,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>500039</v>
+        <v>500040</v>
       </c>
       <c r="B250" t="n">
-        <v>500039</v>
+        <v>500040</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -44370,10 +44370,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>500040</v>
+        <v>500041</v>
       </c>
       <c r="B251" t="n">
-        <v>500040</v>
+        <v>500041</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -44545,10 +44545,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>500041</v>
+        <v>500042</v>
       </c>
       <c r="B252" t="n">
-        <v>500041</v>
+        <v>500042</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -44720,10 +44720,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>500042</v>
+        <v>500043</v>
       </c>
       <c r="B253" t="n">
-        <v>500042</v>
+        <v>500043</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -44895,10 +44895,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>500043</v>
+        <v>500044</v>
       </c>
       <c r="B254" t="n">
-        <v>500043</v>
+        <v>500044</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -45070,10 +45070,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>500044</v>
+        <v>500045</v>
       </c>
       <c r="B255" t="n">
-        <v>500044</v>
+        <v>500045</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -45245,10 +45245,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>500045</v>
+        <v>500046</v>
       </c>
       <c r="B256" t="n">
-        <v>500045</v>
+        <v>500046</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -45420,10 +45420,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>500046</v>
+        <v>500047</v>
       </c>
       <c r="B257" t="n">
-        <v>500046</v>
+        <v>500047</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -45595,10 +45595,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>500047</v>
+        <v>500048</v>
       </c>
       <c r="B258" t="n">
-        <v>500047</v>
+        <v>500048</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -45770,10 +45770,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>500048</v>
+        <v>500049</v>
       </c>
       <c r="B259" t="n">
-        <v>500048</v>
+        <v>500049</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -45945,10 +45945,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>500049</v>
+        <v>500050</v>
       </c>
       <c r="B260" t="n">
-        <v>500049</v>
+        <v>500050</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -46120,10 +46120,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>500050</v>
+        <v>500051</v>
       </c>
       <c r="B261" t="n">
-        <v>500050</v>
+        <v>500051</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -46295,10 +46295,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>500051</v>
+        <v>500052</v>
       </c>
       <c r="B262" t="n">
-        <v>500051</v>
+        <v>500052</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -46470,10 +46470,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>500052</v>
+        <v>500053</v>
       </c>
       <c r="B263" t="n">
-        <v>500052</v>
+        <v>500053</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -46645,10 +46645,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>500053</v>
+        <v>500054</v>
       </c>
       <c r="B264" t="n">
-        <v>500053</v>
+        <v>500054</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -46820,10 +46820,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>500054</v>
+        <v>500055</v>
       </c>
       <c r="B265" t="n">
-        <v>500054</v>
+        <v>500055</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -46995,10 +46995,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>500055</v>
+        <v>500056</v>
       </c>
       <c r="B266" t="n">
-        <v>500055</v>
+        <v>500056</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -47170,10 +47170,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>500056</v>
+        <v>500057</v>
       </c>
       <c r="B267" t="n">
-        <v>500056</v>
+        <v>500057</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -47345,10 +47345,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>500057</v>
+        <v>500058</v>
       </c>
       <c r="B268" t="n">
-        <v>500057</v>
+        <v>500058</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -47520,10 +47520,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>500058</v>
+        <v>500059</v>
       </c>
       <c r="B269" t="n">
-        <v>500058</v>
+        <v>500059</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -47695,10 +47695,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>500059</v>
+        <v>500060</v>
       </c>
       <c r="B270" t="n">
-        <v>500059</v>
+        <v>500060</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -47870,10 +47870,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>500060</v>
+        <v>500061</v>
       </c>
       <c r="B271" t="n">
-        <v>500060</v>
+        <v>500061</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -48045,10 +48045,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>500061</v>
+        <v>500062</v>
       </c>
       <c r="B272" t="n">
-        <v>500061</v>
+        <v>500062</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -48220,10 +48220,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>500062</v>
+        <v>500063</v>
       </c>
       <c r="B273" t="n">
-        <v>500062</v>
+        <v>500063</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -48395,10 +48395,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>500063</v>
+        <v>500064</v>
       </c>
       <c r="B274" t="n">
-        <v>500063</v>
+        <v>500064</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -48570,10 +48570,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>500064</v>
+        <v>500065</v>
       </c>
       <c r="B275" t="n">
-        <v>500064</v>
+        <v>500065</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -48745,10 +48745,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>500065</v>
+        <v>500066</v>
       </c>
       <c r="B276" t="n">
-        <v>500065</v>
+        <v>500066</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -48920,10 +48920,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>500066</v>
+        <v>500067</v>
       </c>
       <c r="B277" t="n">
-        <v>500066</v>
+        <v>500067</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -49095,10 +49095,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>500067</v>
+        <v>500068</v>
       </c>
       <c r="B278" t="n">
-        <v>500067</v>
+        <v>500068</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -49270,10 +49270,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>500068</v>
+        <v>500069</v>
       </c>
       <c r="B279" t="n">
-        <v>500068</v>
+        <v>500069</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -49445,10 +49445,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>500069</v>
+        <v>500070</v>
       </c>
       <c r="B280" t="n">
-        <v>500069</v>
+        <v>500070</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -49620,10 +49620,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>500070</v>
+        <v>500071</v>
       </c>
       <c r="B281" t="n">
-        <v>500070</v>
+        <v>500071</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -49795,10 +49795,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>500071</v>
+        <v>500072</v>
       </c>
       <c r="B282" t="n">
-        <v>500071</v>
+        <v>500072</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -49970,10 +49970,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>500072</v>
+        <v>500073</v>
       </c>
       <c r="B283" t="n">
-        <v>500072</v>
+        <v>500073</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -50145,10 +50145,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>500073</v>
+        <v>500074</v>
       </c>
       <c r="B284" t="n">
-        <v>500073</v>
+        <v>500074</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -50320,10 +50320,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>500074</v>
+        <v>500075</v>
       </c>
       <c r="B285" t="n">
-        <v>500074</v>
+        <v>500075</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -50495,10 +50495,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>500075</v>
+        <v>500076</v>
       </c>
       <c r="B286" t="n">
-        <v>500075</v>
+        <v>500076</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -50670,10 +50670,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>500076</v>
+        <v>500077</v>
       </c>
       <c r="B287" t="n">
-        <v>500076</v>
+        <v>500077</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -50845,10 +50845,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>500077</v>
+        <v>500078</v>
       </c>
       <c r="B288" t="n">
-        <v>500077</v>
+        <v>500078</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -51020,10 +51020,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>500078</v>
+        <v>500079</v>
       </c>
       <c r="B289" t="n">
-        <v>500078</v>
+        <v>500079</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -51195,10 +51195,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>500079</v>
+        <v>500080</v>
       </c>
       <c r="B290" t="n">
-        <v>500079</v>
+        <v>500080</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -51370,10 +51370,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>500080</v>
+        <v>500081</v>
       </c>
       <c r="B291" t="n">
-        <v>500080</v>
+        <v>500081</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -51545,10 +51545,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>500081</v>
+        <v>500082</v>
       </c>
       <c r="B292" t="n">
-        <v>500081</v>
+        <v>500082</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -51720,10 +51720,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>500082</v>
+        <v>500083</v>
       </c>
       <c r="B293" t="n">
-        <v>500082</v>
+        <v>500083</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -51895,10 +51895,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>500083</v>
+        <v>500084</v>
       </c>
       <c r="B294" t="n">
-        <v>500083</v>
+        <v>500084</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -52070,10 +52070,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>500084</v>
+        <v>500085</v>
       </c>
       <c r="B295" t="n">
-        <v>500084</v>
+        <v>500085</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -52245,10 +52245,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>500085</v>
+        <v>500086</v>
       </c>
       <c r="B296" t="n">
-        <v>500085</v>
+        <v>500086</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -52420,10 +52420,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>500086</v>
+        <v>500087</v>
       </c>
       <c r="B297" t="n">
-        <v>500086</v>
+        <v>500087</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -52595,10 +52595,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>500087</v>
+        <v>500088</v>
       </c>
       <c r="B298" t="n">
-        <v>500087</v>
+        <v>500088</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -52770,10 +52770,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>500088</v>
+        <v>500089</v>
       </c>
       <c r="B299" t="n">
-        <v>500088</v>
+        <v>500089</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -52945,10 +52945,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>500089</v>
+        <v>500090</v>
       </c>
       <c r="B300" t="n">
-        <v>500089</v>
+        <v>500090</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -53120,10 +53120,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>500090</v>
+        <v>500091</v>
       </c>
       <c r="B301" t="n">
-        <v>500090</v>
+        <v>500091</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -53295,10 +53295,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>500091</v>
+        <v>500092</v>
       </c>
       <c r="B302" t="n">
-        <v>500091</v>
+        <v>500092</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -53470,10 +53470,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>500092</v>
+        <v>500093</v>
       </c>
       <c r="B303" t="n">
-        <v>500092</v>
+        <v>500093</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -53645,10 +53645,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>500093</v>
+        <v>500094</v>
       </c>
       <c r="B304" t="n">
-        <v>500093</v>
+        <v>500094</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -53820,10 +53820,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>500094</v>
+        <v>500095</v>
       </c>
       <c r="B305" t="n">
-        <v>500094</v>
+        <v>500095</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -53995,10 +53995,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>500095</v>
+        <v>500096</v>
       </c>
       <c r="B306" t="n">
-        <v>500095</v>
+        <v>500096</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -54170,10 +54170,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>500096</v>
+        <v>500097</v>
       </c>
       <c r="B307" t="n">
-        <v>500096</v>
+        <v>500097</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -54345,10 +54345,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>500097</v>
+        <v>500098</v>
       </c>
       <c r="B308" t="n">
-        <v>500097</v>
+        <v>500098</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -54520,10 +54520,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>500098</v>
+        <v>500099</v>
       </c>
       <c r="B309" t="n">
-        <v>500098</v>
+        <v>500099</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -54695,10 +54695,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>500099</v>
+        <v>500100</v>
       </c>
       <c r="B310" t="n">
-        <v>500099</v>
+        <v>500100</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -54870,10 +54870,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>500100</v>
+        <v>500101</v>
       </c>
       <c r="B311" t="n">
-        <v>500100</v>
+        <v>500101</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -55045,10 +55045,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>500101</v>
+        <v>500102</v>
       </c>
       <c r="B312" t="n">
-        <v>500101</v>
+        <v>500102</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -55220,10 +55220,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>500102</v>
+        <v>500103</v>
       </c>
       <c r="B313" t="n">
-        <v>500102</v>
+        <v>500103</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -55395,10 +55395,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>500103</v>
+        <v>500104</v>
       </c>
       <c r="B314" t="n">
-        <v>500103</v>
+        <v>500104</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -55570,10 +55570,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>500104</v>
+        <v>500105</v>
       </c>
       <c r="B315" t="n">
-        <v>500104</v>
+        <v>500105</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -55745,10 +55745,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>500105</v>
+        <v>500106</v>
       </c>
       <c r="B316" t="n">
-        <v>500105</v>
+        <v>500106</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -55920,10 +55920,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>500106</v>
+        <v>500107</v>
       </c>
       <c r="B317" t="n">
-        <v>500106</v>
+        <v>500107</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -56095,10 +56095,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>500107</v>
+        <v>500108</v>
       </c>
       <c r="B318" t="n">
-        <v>500107</v>
+        <v>500108</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -56270,10 +56270,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>500108</v>
+        <v>500109</v>
       </c>
       <c r="B319" t="n">
-        <v>500108</v>
+        <v>500109</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -56445,10 +56445,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>500109</v>
+        <v>500110</v>
       </c>
       <c r="B320" t="n">
-        <v>500109</v>
+        <v>500110</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -56620,10 +56620,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>500110</v>
+        <v>500111</v>
       </c>
       <c r="B321" t="n">
-        <v>500110</v>
+        <v>500111</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -56795,10 +56795,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>500111</v>
+        <v>500112</v>
       </c>
       <c r="B322" t="n">
-        <v>500111</v>
+        <v>500112</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -56970,10 +56970,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>500112</v>
+        <v>500113</v>
       </c>
       <c r="B323" t="n">
-        <v>500112</v>
+        <v>500113</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -57145,10 +57145,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>500113</v>
+        <v>500114</v>
       </c>
       <c r="B324" t="n">
-        <v>500113</v>
+        <v>500114</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -57320,10 +57320,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>500114</v>
+        <v>500115</v>
       </c>
       <c r="B325" t="n">
-        <v>500114</v>
+        <v>500115</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -57495,10 +57495,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>500115</v>
+        <v>500116</v>
       </c>
       <c r="B326" t="n">
-        <v>500115</v>
+        <v>500116</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -57670,10 +57670,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>500116</v>
+        <v>500117</v>
       </c>
       <c r="B327" t="n">
-        <v>500116</v>
+        <v>500117</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -57845,10 +57845,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>500117</v>
+        <v>500118</v>
       </c>
       <c r="B328" t="n">
-        <v>500117</v>
+        <v>500118</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -58020,10 +58020,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>500118</v>
+        <v>500119</v>
       </c>
       <c r="B329" t="n">
-        <v>500118</v>
+        <v>500119</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -58195,10 +58195,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>500119</v>
+        <v>500120</v>
       </c>
       <c r="B330" t="n">
-        <v>500119</v>
+        <v>500120</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -58370,10 +58370,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>500120</v>
+        <v>500121</v>
       </c>
       <c r="B331" t="n">
-        <v>500120</v>
+        <v>500121</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -58545,10 +58545,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>500121</v>
+        <v>500122</v>
       </c>
       <c r="B332" t="n">
-        <v>500121</v>
+        <v>500122</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -58720,10 +58720,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>500122</v>
+        <v>500123</v>
       </c>
       <c r="B333" t="n">
-        <v>500122</v>
+        <v>500123</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -58895,10 +58895,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>500123</v>
+        <v>500124</v>
       </c>
       <c r="B334" t="n">
-        <v>500123</v>
+        <v>500124</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -59070,10 +59070,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>500124</v>
+        <v>500125</v>
       </c>
       <c r="B335" t="n">
-        <v>500124</v>
+        <v>500125</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -59245,10 +59245,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>500125</v>
+        <v>500126</v>
       </c>
       <c r="B336" t="n">
-        <v>500125</v>
+        <v>500126</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -59420,10 +59420,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>500126</v>
+        <v>500127</v>
       </c>
       <c r="B337" t="n">
-        <v>500126</v>
+        <v>500127</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -59595,10 +59595,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>500127</v>
+        <v>500128</v>
       </c>
       <c r="B338" t="n">
-        <v>500127</v>
+        <v>500128</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -59772,10 +59772,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>500128</v>
+        <v>500129</v>
       </c>
       <c r="B339" t="n">
-        <v>500128</v>
+        <v>500129</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -59949,10 +59949,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>500129</v>
+        <v>500130</v>
       </c>
       <c r="B340" t="n">
-        <v>500129</v>
+        <v>500130</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -60126,10 +60126,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>500130</v>
+        <v>500131</v>
       </c>
       <c r="B341" t="n">
-        <v>500130</v>
+        <v>500131</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -60303,10 +60303,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>500131</v>
+        <v>500132</v>
       </c>
       <c r="B342" t="n">
-        <v>500131</v>
+        <v>500132</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -60480,10 +60480,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>500132</v>
+        <v>500133</v>
       </c>
       <c r="B343" t="n">
-        <v>500132</v>
+        <v>500133</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -60657,10 +60657,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>500133</v>
+        <v>500134</v>
       </c>
       <c r="B344" t="n">
-        <v>500133</v>
+        <v>500134</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -60834,10 +60834,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>500134</v>
+        <v>500135</v>
       </c>
       <c r="B345" t="n">
-        <v>500134</v>
+        <v>500135</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -61011,10 +61011,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>500135</v>
+        <v>500136</v>
       </c>
       <c r="B346" t="n">
-        <v>500135</v>
+        <v>500136</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -61188,10 +61188,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>500136</v>
+        <v>500137</v>
       </c>
       <c r="B347" t="n">
-        <v>500136</v>
+        <v>500137</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -61365,10 +61365,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>500137</v>
+        <v>500138</v>
       </c>
       <c r="B348" t="n">
-        <v>500137</v>
+        <v>500138</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -61542,10 +61542,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>500138</v>
+        <v>500139</v>
       </c>
       <c r="B349" t="n">
-        <v>500138</v>
+        <v>500139</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -61719,10 +61719,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>500139</v>
+        <v>500140</v>
       </c>
       <c r="B350" t="n">
-        <v>500139</v>
+        <v>500140</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -61896,10 +61896,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>500140</v>
+        <v>500141</v>
       </c>
       <c r="B351" t="n">
-        <v>500140</v>
+        <v>500141</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -62073,10 +62073,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>500141</v>
+        <v>500142</v>
       </c>
       <c r="B352" t="n">
-        <v>500141</v>
+        <v>500142</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -62250,10 +62250,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>500142</v>
+        <v>500143</v>
       </c>
       <c r="B353" t="n">
-        <v>500142</v>
+        <v>500143</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -62426,10 +62426,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>500143</v>
+        <v>500144</v>
       </c>
       <c r="B354" t="n">
-        <v>500143</v>
+        <v>500144</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -62603,10 +62603,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>500144</v>
+        <v>500145</v>
       </c>
       <c r="B355" t="n">
-        <v>500144</v>
+        <v>500145</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -62780,10 +62780,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>500145</v>
+        <v>500146</v>
       </c>
       <c r="B356" t="n">
-        <v>500145</v>
+        <v>500146</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -62957,10 +62957,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>500146</v>
+        <v>500147</v>
       </c>
       <c r="B357" t="n">
-        <v>500146</v>
+        <v>500147</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -63134,10 +63134,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>500147</v>
+        <v>500148</v>
       </c>
       <c r="B358" t="n">
-        <v>500147</v>
+        <v>500148</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -63311,10 +63311,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>500148</v>
+        <v>500149</v>
       </c>
       <c r="B359" t="n">
-        <v>500148</v>
+        <v>500149</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -63488,10 +63488,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>500149</v>
+        <v>500150</v>
       </c>
       <c r="B360" t="n">
-        <v>500149</v>
+        <v>500150</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -63665,10 +63665,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>500150</v>
+        <v>500151</v>
       </c>
       <c r="B361" t="n">
-        <v>500150</v>
+        <v>500151</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -63842,10 +63842,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>500151</v>
+        <v>500152</v>
       </c>
       <c r="B362" t="n">
-        <v>500151</v>
+        <v>500152</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -64019,10 +64019,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>500152</v>
+        <v>500153</v>
       </c>
       <c r="B363" t="n">
-        <v>500152</v>
+        <v>500153</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -64196,10 +64196,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>500153</v>
+        <v>500154</v>
       </c>
       <c r="B364" t="n">
-        <v>500153</v>
+        <v>500154</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -64373,10 +64373,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>500154</v>
+        <v>500155</v>
       </c>
       <c r="B365" t="n">
-        <v>500154</v>
+        <v>500155</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -64550,10 +64550,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>500155</v>
+        <v>500156</v>
       </c>
       <c r="B366" t="n">
-        <v>500155</v>
+        <v>500156</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -64727,10 +64727,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>500156</v>
+        <v>500157</v>
       </c>
       <c r="B367" t="n">
-        <v>500156</v>
+        <v>500157</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -64903,10 +64903,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>500157</v>
+        <v>500158</v>
       </c>
       <c r="B368" t="n">
-        <v>500157</v>
+        <v>500158</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -65079,10 +65079,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>500158</v>
+        <v>500159</v>
       </c>
       <c r="B369" t="n">
-        <v>500158</v>
+        <v>500159</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -65255,10 +65255,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>500159</v>
+        <v>500160</v>
       </c>
       <c r="B370" t="n">
-        <v>500159</v>
+        <v>500160</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -65432,10 +65432,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>500160</v>
+        <v>500161</v>
       </c>
       <c r="B371" t="n">
-        <v>500160</v>
+        <v>500161</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -65609,10 +65609,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>500161</v>
+        <v>500162</v>
       </c>
       <c r="B372" t="n">
-        <v>500161</v>
+        <v>500162</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -65786,10 +65786,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>500162</v>
+        <v>500163</v>
       </c>
       <c r="B373" t="n">
-        <v>500162</v>
+        <v>500163</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -65962,10 +65962,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>500163</v>
+        <v>500164</v>
       </c>
       <c r="B374" t="n">
-        <v>500163</v>
+        <v>500164</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -66139,10 +66139,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>500164</v>
+        <v>500165</v>
       </c>
       <c r="B375" t="n">
-        <v>500164</v>
+        <v>500165</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -66315,10 +66315,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>500165</v>
+        <v>500166</v>
       </c>
       <c r="B376" t="n">
-        <v>500165</v>
+        <v>500166</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -66492,10 +66492,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>500166</v>
+        <v>500167</v>
       </c>
       <c r="B377" t="n">
-        <v>500166</v>
+        <v>500167</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -66669,10 +66669,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>500167</v>
+        <v>500168</v>
       </c>
       <c r="B378" t="n">
-        <v>500167</v>
+        <v>500168</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -66846,10 +66846,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>500168</v>
+        <v>500169</v>
       </c>
       <c r="B379" t="n">
-        <v>500168</v>
+        <v>500169</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -67023,10 +67023,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>500169</v>
+        <v>500170</v>
       </c>
       <c r="B380" t="n">
-        <v>500169</v>
+        <v>500170</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -67200,10 +67200,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>500170</v>
+        <v>500171</v>
       </c>
       <c r="B381" t="n">
-        <v>500170</v>
+        <v>500171</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -67376,10 +67376,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>500171</v>
+        <v>500172</v>
       </c>
       <c r="B382" t="n">
-        <v>500171</v>
+        <v>500172</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -67552,10 +67552,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>500172</v>
+        <v>500173</v>
       </c>
       <c r="B383" t="n">
-        <v>500172</v>
+        <v>500173</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -67728,10 +67728,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>500173</v>
+        <v>500174</v>
       </c>
       <c r="B384" t="n">
-        <v>500173</v>
+        <v>500174</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -67904,10 +67904,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>500174</v>
+        <v>500175</v>
       </c>
       <c r="B385" t="n">
-        <v>500174</v>
+        <v>500175</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -68080,10 +68080,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>500175</v>
+        <v>500176</v>
       </c>
       <c r="B386" t="n">
-        <v>500175</v>
+        <v>500176</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -68257,10 +68257,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>500176</v>
+        <v>500177</v>
       </c>
       <c r="B387" t="n">
-        <v>500176</v>
+        <v>500177</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -68434,10 +68434,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>500177</v>
+        <v>500178</v>
       </c>
       <c r="B388" t="n">
-        <v>500177</v>
+        <v>500178</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -68611,10 +68611,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>500178</v>
+        <v>500179</v>
       </c>
       <c r="B389" t="n">
-        <v>500178</v>
+        <v>500179</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -68788,10 +68788,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>500179</v>
+        <v>500180</v>
       </c>
       <c r="B390" t="n">
-        <v>500179</v>
+        <v>500180</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -68965,10 +68965,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>500180</v>
+        <v>500181</v>
       </c>
       <c r="B391" t="n">
-        <v>500180</v>
+        <v>500181</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -69142,10 +69142,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>500181</v>
+        <v>500182</v>
       </c>
       <c r="B392" t="n">
-        <v>500181</v>
+        <v>500182</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -69319,10 +69319,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>500182</v>
+        <v>500183</v>
       </c>
       <c r="B393" t="n">
-        <v>500182</v>
+        <v>500183</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -69495,10 +69495,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>500183</v>
+        <v>500184</v>
       </c>
       <c r="B394" t="n">
-        <v>500183</v>
+        <v>500184</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -69671,10 +69671,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>500184</v>
+        <v>500185</v>
       </c>
       <c r="B395" t="n">
-        <v>500184</v>
+        <v>500185</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -69847,10 +69847,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>500185</v>
+        <v>500186</v>
       </c>
       <c r="B396" t="n">
-        <v>500185</v>
+        <v>500186</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -70024,10 +70024,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>500186</v>
+        <v>500187</v>
       </c>
       <c r="B397" t="n">
-        <v>500186</v>
+        <v>500187</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -70201,10 +70201,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>500187</v>
+        <v>500188</v>
       </c>
       <c r="B398" t="n">
-        <v>500187</v>
+        <v>500188</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -70377,10 +70377,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>500188</v>
+        <v>500189</v>
       </c>
       <c r="B399" t="n">
-        <v>500188</v>
+        <v>500189</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -70554,10 +70554,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>500189</v>
+        <v>500190</v>
       </c>
       <c r="B400" t="n">
-        <v>500189</v>
+        <v>500190</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -70730,10 +70730,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>500190</v>
+        <v>500191</v>
       </c>
       <c r="B401" t="n">
-        <v>500190</v>
+        <v>500191</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -70906,10 +70906,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>500191</v>
+        <v>500192</v>
       </c>
       <c r="B402" t="n">
-        <v>500191</v>
+        <v>500192</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -71083,10 +71083,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>500192</v>
+        <v>500193</v>
       </c>
       <c r="B403" t="n">
-        <v>500192</v>
+        <v>500193</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -71260,10 +71260,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>500193</v>
+        <v>500194</v>
       </c>
       <c r="B404" t="n">
-        <v>500193</v>
+        <v>500194</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -71437,10 +71437,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>500194</v>
+        <v>500195</v>
       </c>
       <c r="B405" t="n">
-        <v>500194</v>
+        <v>500195</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -71613,10 +71613,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>500195</v>
+        <v>500196</v>
       </c>
       <c r="B406" t="n">
-        <v>500195</v>
+        <v>500196</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -71789,10 +71789,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>500196</v>
+        <v>500197</v>
       </c>
       <c r="B407" t="n">
-        <v>500196</v>
+        <v>500197</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -71965,10 +71965,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>500197</v>
+        <v>500198</v>
       </c>
       <c r="B408" t="n">
-        <v>500197</v>
+        <v>500198</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -72141,10 +72141,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>500198</v>
+        <v>500199</v>
       </c>
       <c r="B409" t="n">
-        <v>500198</v>
+        <v>500199</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -72317,10 +72317,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>500199</v>
+        <v>500200</v>
       </c>
       <c r="B410" t="n">
-        <v>500199</v>
+        <v>500200</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -72493,10 +72493,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>500200</v>
+        <v>500201</v>
       </c>
       <c r="B411" t="n">
-        <v>500200</v>
+        <v>500201</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -72669,10 +72669,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>500201</v>
+        <v>500202</v>
       </c>
       <c r="B412" t="n">
-        <v>500201</v>
+        <v>500202</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -72845,10 +72845,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>500202</v>
+        <v>500203</v>
       </c>
       <c r="B413" t="n">
-        <v>500202</v>
+        <v>500203</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -73021,10 +73021,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>500203</v>
+        <v>500204</v>
       </c>
       <c r="B414" t="n">
-        <v>500203</v>
+        <v>500204</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -73197,10 +73197,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>500204</v>
+        <v>500205</v>
       </c>
       <c r="B415" t="n">
-        <v>500204</v>
+        <v>500205</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -73373,10 +73373,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>500205</v>
+        <v>500206</v>
       </c>
       <c r="B416" t="n">
-        <v>500205</v>
+        <v>500206</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -73549,10 +73549,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>500206</v>
+        <v>500207</v>
       </c>
       <c r="B417" t="n">
-        <v>500206</v>
+        <v>500207</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
